--- a/Third Part/Booking TCs.xlsx
+++ b/Third Part/Booking TCs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3bsatar\Downloads\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Vodafone Task\Third Part\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36891F66-5432-404B-9B34-A2E270082AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A7A9C9-6BED-4033-A1EB-005AABAF6156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -171,7 +171,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +192,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -202,7 +210,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -219,12 +227,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -236,6 +241,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -518,37 +527,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="40.6328125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="35.90625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="53.81640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="41" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="40.6328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="35.90625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="53.81640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="19.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -556,16 +565,16 @@
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>40</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -576,16 +585,16 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>39</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -596,16 +605,16 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>38</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -616,16 +625,16 @@
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>37</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -636,16 +645,16 @@
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -656,16 +665,16 @@
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>35</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -676,16 +685,16 @@
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>34</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -693,66 +702,66 @@
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
       <c r="F16" s="1"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
       <c r="F17" s="1"/>
     </row>
   </sheetData>

--- a/Third Part/Booking TCs.xlsx
+++ b/Third Part/Booking TCs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work\Vodafone Task\Third Part\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25A7A9C9-6BED-4033-A1EB-005AABAF6156}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA2C4EEE-5350-4B12-B588-3812A93E1C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,21 +75,6 @@
     <t>Verify user is able to update an existing booking</t>
   </si>
   <si>
-    <t>Verify create then update booking in same flow</t>
-  </si>
-  <si>
-    <t>Verify end-to-end booking flow</t>
-  </si>
-  <si>
-    <t>Verify retrieve booking by ID</t>
-  </si>
-  <si>
-    <t>Verify retrieve booking after update</t>
-  </si>
-  <si>
-    <t>Verify delete booking</t>
-  </si>
-  <si>
     <t>User has valid API URL and request body.</t>
   </si>
   <si>
@@ -165,6 +150,21 @@
   </si>
   <si>
     <t>Booking created successfully with valid bookingid.</t>
+  </si>
+  <si>
+    <t>Verify user is able to create then update booking in same flow</t>
+  </si>
+  <si>
+    <t>Verify user is able to do end-to-end booking flow</t>
+  </si>
+  <si>
+    <t>Verify user is able to retrieve booking by ID</t>
+  </si>
+  <si>
+    <t>Verify user is able to retrieve booking after update</t>
+  </si>
+  <si>
+    <t>Verify user is able to delete booking</t>
   </si>
 </sst>
 </file>
@@ -215,7 +215,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -223,11 +223,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -238,13 +253,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,21 +548,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="6.81640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="41" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.36328125" style="2" customWidth="1"/>
     <col min="3" max="3" width="40.6328125" style="2" customWidth="1"/>
     <col min="4" max="4" width="35.90625" style="2" customWidth="1"/>
     <col min="5" max="5" width="53.81640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="19.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="6" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" s="4" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -562,142 +583,142 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="58" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="D8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="E8" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="58" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" s="6" t="s">
         <v>12</v>
       </c>
     </row>
